--- a/Documents/GD/RGD.xlsx
+++ b/Documents/GD/RGD.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom99\Documents\GitHub\Phainiks\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\Documents\GD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDACECE-7237-49F5-BB00-F75B664C881A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{B3696AED-D62A-4EDC-A333-55782D041864}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="57">
   <si>
     <t>No challenge</t>
   </si>
@@ -39,27 +38,9 @@
     <t>Impossible</t>
   </si>
   <si>
-    <t>taille des cases</t>
-  </si>
-  <si>
     <t>Déplacement</t>
   </si>
   <si>
-    <t>sensibilité du curseur</t>
-  </si>
-  <si>
-    <t>Visée manuelle</t>
-  </si>
-  <si>
-    <t>Visée automatique</t>
-  </si>
-  <si>
-    <t>Magnétisme avec la case (aide à la visée)</t>
-  </si>
-  <si>
-    <t>Impossible de viser la case</t>
-  </si>
-  <si>
     <t>tout l'écran</t>
   </si>
   <si>
@@ -72,19 +53,154 @@
     <t>case infiniment petite</t>
   </si>
   <si>
-    <t>Reboot</t>
-  </si>
-  <si>
-    <t>récuperer un objet</t>
-  </si>
-  <si>
-    <t>Modification du terrain</t>
+    <t>Déplacement auto</t>
+  </si>
+  <si>
+    <t>angle permissif (aide à la visée)</t>
+  </si>
+  <si>
+    <t>Visée manuelle (angle absolu)</t>
+  </si>
+  <si>
+    <t>case actuelle du joueur</t>
+  </si>
+  <si>
+    <t>case adjascente au joueur</t>
+  </si>
+  <si>
+    <t>case éloignée du joueur</t>
+  </si>
+  <si>
+    <t>case que le joueur ne peut pas atteindre</t>
+  </si>
+  <si>
+    <t>Block poussable</t>
+  </si>
+  <si>
+    <t>sensibilité du swipe</t>
+  </si>
+  <si>
+    <t>Impossible de reconnaitre la direction</t>
+  </si>
+  <si>
+    <t>Tempo Tiles</t>
+  </si>
+  <si>
+    <t>positionnement de la tile</t>
+  </si>
+  <si>
+    <t>taille des tiles</t>
+  </si>
+  <si>
+    <t>Tempo de la tile</t>
+  </si>
+  <si>
+    <t>pas de tempo (basse)</t>
+  </si>
+  <si>
+    <t>dans le tempo du joueur</t>
+  </si>
+  <si>
+    <t>off tempo</t>
+  </si>
+  <si>
+    <t>pas de tempo (haute)</t>
+  </si>
+  <si>
+    <t>Bouton</t>
+  </si>
+  <si>
+    <t>Block TP</t>
+  </si>
+  <si>
+    <t>Trigger de TP</t>
+  </si>
+  <si>
+    <t>infinite trigger (loop)</t>
+  </si>
+  <si>
+    <t>Pas de trigger (tiles normale)</t>
+  </si>
+  <si>
+    <t>trigger A-B/B-A (aller retour)</t>
+  </si>
+  <si>
+    <t>Trigger A-B only (aller simple)</t>
+  </si>
+  <si>
+    <t>Crumble Tiles</t>
+  </si>
+  <si>
+    <t>Trigger de crumble</t>
+  </si>
+  <si>
+    <t>Pas de crumble</t>
+  </si>
+  <si>
+    <t>crumble aller (1 passage)</t>
+  </si>
+  <si>
+    <t>Instant crumble (des que le joueur est dessus)</t>
+  </si>
+  <si>
+    <t>Crumble après aller retour (2 passages)</t>
+  </si>
+  <si>
+    <t>Ennemy</t>
+  </si>
+  <si>
+    <t>Vitesse de déplacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portée de vision </t>
+  </si>
+  <si>
+    <t>direction du regard</t>
+  </si>
+  <si>
+    <t>statique</t>
+  </si>
+  <si>
+    <t>1 tour sur 2</t>
+  </si>
+  <si>
+    <t>vitesse du joueur</t>
+  </si>
+  <si>
+    <t>Spawn devant le joueur</t>
+  </si>
+  <si>
+    <t>aveugle</t>
+  </si>
+  <si>
+    <t>tous le niveau</t>
+  </si>
+  <si>
+    <t>ligne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> case</t>
+  </si>
+  <si>
+    <t>une direction</t>
+  </si>
+  <si>
+    <t>cone</t>
+  </si>
+  <si>
+    <t>portée d'attaque (game over ?)</t>
+  </si>
+  <si>
+    <t>aucune</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,24 +594,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCE8B17-28FB-404D-91B6-13F79D371152}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -510,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>0</v>
@@ -524,165 +640,545 @@
       <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="K17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
+      <c r="K18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
